--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006593</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道中证500指数增强A</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006594</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道中证500指数增强C</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.36</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2369,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,17 +2381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2416,14 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2432,14 +2497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.36</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2448,14 +2535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4820</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2464,13 +2573,2823 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8375</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7100</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6600</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5272,7 +5273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5283,17 +5284,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5303,14 +5324,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.14</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5319,14 +5362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5335,14 +5400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5351,14 +5438,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.36</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5367,14 +5476,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5383,13 +5514,713 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>22.14</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.36</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -600,6 +617,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +2322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4315,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4934,328 +5843,6 @@
       </c>
       <c r="H16" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2828</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005537</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005538</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5320,36 +5907,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.10</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6146</t>
+          <t>0.2828</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5358,36 +5945,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3383</t>
+          <t>0.1914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5396,32 +5983,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1438</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -5434,36 +6021,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5472,32 +6059,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0783</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -5510,36 +6097,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>005537</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>中航新起航灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -5548,22 +6135,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>005538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>中航新起航灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5573,11 +6160,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5586,6 +6173,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5945,7 +6854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002603-以岭药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.82</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>22.14</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.36</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2322,7 +3097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5224,7 +5999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5843,328 +6618,6 @@
       </c>
       <c r="H16" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2828</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005537</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005538</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6229,36 +6682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.10</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6146</t>
+          <t>0.2828</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6267,36 +6720,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3383</t>
+          <t>0.1914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6305,32 +6758,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1438</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6343,36 +6796,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6381,32 +6834,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0783</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -6419,36 +6872,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>005537</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>中航新起航灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -6457,22 +6910,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>005538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>中航新起航灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6482,11 +6935,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6495,6 +6948,328 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6852,288 +7627,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7097</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0989</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>